--- a/codes/glcm/tomato_test_Final.xlsx
+++ b/codes/glcm/tomato_test_Final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="515">
   <si>
     <t>contrast</t>
   </si>
@@ -46,34 +46,1519 @@
     <t>label</t>
   </si>
   <si>
-    <t>126.31365472200739</t>
-  </si>
-  <si>
-    <t>6.574317550342299</t>
-  </si>
-  <si>
-    <t>0.25846352412382667</t>
-  </si>
-  <si>
-    <t>0.0005539774624781702</t>
-  </si>
-  <si>
-    <t>0.0235367258232357</t>
-  </si>
-  <si>
-    <t>38.92872656607224</t>
-  </si>
-  <si>
-    <t>110.53491512345678</t>
-  </si>
-  <si>
-    <t>114.27300525834477</t>
-  </si>
-  <si>
-    <t>../../data/tomato/test/mold/test_1.jpg</t>
-  </si>
-  <si>
-    <t>1111</t>
+    <t>1305.6983149509801</t>
+  </si>
+  <si>
+    <t>167.41000306372547</t>
+  </si>
+  <si>
+    <t>775.4876225490195</t>
+  </si>
+  <si>
+    <t>659.5874999999999</t>
+  </si>
+  <si>
+    <t>1436.8722120098037</t>
+  </si>
+  <si>
+    <t>756.9809589460783</t>
+  </si>
+  <si>
+    <t>730.1096660539215</t>
+  </si>
+  <si>
+    <t>896.8821231617648</t>
+  </si>
+  <si>
+    <t>992.4111366421569</t>
+  </si>
+  <si>
+    <t>747.5144761029411</t>
+  </si>
+  <si>
+    <t>780.243443627451</t>
+  </si>
+  <si>
+    <t>809.3585784313724</t>
+  </si>
+  <si>
+    <t>1496.296139705882</t>
+  </si>
+  <si>
+    <t>1033.3950061274509</t>
+  </si>
+  <si>
+    <t>816.491988357843</t>
+  </si>
+  <si>
+    <t>891.7297487745097</t>
+  </si>
+  <si>
+    <t>591.9639399509804</t>
+  </si>
+  <si>
+    <t>805.6335784313724</t>
+  </si>
+  <si>
+    <t>976.9893229166664</t>
+  </si>
+  <si>
+    <t>937.614506740196</t>
+  </si>
+  <si>
+    <t>538.0743259803921</t>
+  </si>
+  <si>
+    <t>1104.7909313725488</t>
+  </si>
+  <si>
+    <t>1008.6791973039215</t>
+  </si>
+  <si>
+    <t>654.2808670343136</t>
+  </si>
+  <si>
+    <t>744.6829810049019</t>
+  </si>
+  <si>
+    <t>428.8795496323529</t>
+  </si>
+  <si>
+    <t>200.82469362745098</t>
+  </si>
+  <si>
+    <t>1157.8656709558823</t>
+  </si>
+  <si>
+    <t>424.5374234068628</t>
+  </si>
+  <si>
+    <t>460.2810814950981</t>
+  </si>
+  <si>
+    <t>999.6327205882352</t>
+  </si>
+  <si>
+    <t>757.5015624999999</t>
+  </si>
+  <si>
+    <t>537.2914522058823</t>
+  </si>
+  <si>
+    <t>781.404794730392</t>
+  </si>
+  <si>
+    <t>481.3305453431372</t>
+  </si>
+  <si>
+    <t>1550.8846966911765</t>
+  </si>
+  <si>
+    <t>542.0931372549019</t>
+  </si>
+  <si>
+    <t>955.3619332107842</t>
+  </si>
+  <si>
+    <t>726.5920496323529</t>
+  </si>
+  <si>
+    <t>565.1859374999999</t>
+  </si>
+  <si>
+    <t>515.9077665441175</t>
+  </si>
+  <si>
+    <t>710.6586856617646</t>
+  </si>
+  <si>
+    <t>331.1671415441176</t>
+  </si>
+  <si>
+    <t>1007.3758578431372</t>
+  </si>
+  <si>
+    <t>496.6916666666666</t>
+  </si>
+  <si>
+    <t>812.7121936274509</t>
+  </si>
+  <si>
+    <t>884.2427389705881</t>
+  </si>
+  <si>
+    <t>712.35859375</t>
+  </si>
+  <si>
+    <t>719.8999080882352</t>
+  </si>
+  <si>
+    <t>1104.826700367647</t>
+  </si>
+  <si>
+    <t>479.0300398284313</t>
+  </si>
+  <si>
+    <t>1129.6591911764706</t>
+  </si>
+  <si>
+    <t>550.6402420343137</t>
+  </si>
+  <si>
+    <t>1394.1642463235291</t>
+  </si>
+  <si>
+    <t>791.0216911764704</t>
+  </si>
+  <si>
+    <t>793.4738204656861</t>
+  </si>
+  <si>
+    <t>26.54344362745097</t>
+  </si>
+  <si>
+    <t>8.19474571078431</t>
+  </si>
+  <si>
+    <t>19.833241421568616</t>
+  </si>
+  <si>
+    <t>17.69518995098038</t>
+  </si>
+  <si>
+    <t>28.122028186274495</t>
+  </si>
+  <si>
+    <t>19.631112132352932</t>
+  </si>
+  <si>
+    <t>19.132153799019598</t>
+  </si>
+  <si>
+    <t>21.507735906862735</t>
+  </si>
+  <si>
+    <t>22.66046262254901</t>
+  </si>
+  <si>
+    <t>20.485401348039208</t>
+  </si>
+  <si>
+    <t>21.533149509803913</t>
+  </si>
+  <si>
+    <t>20.526317401960775</t>
+  </si>
+  <si>
+    <t>28.837009803921557</t>
+  </si>
+  <si>
+    <t>22.776317401960775</t>
+  </si>
+  <si>
+    <t>19.775934436274497</t>
+  </si>
+  <si>
+    <t>21.53578431372548</t>
+  </si>
+  <si>
+    <t>17.661795343137243</t>
+  </si>
+  <si>
+    <t>19.37558210784312</t>
+  </si>
+  <si>
+    <t>23.178814338235277</t>
+  </si>
+  <si>
+    <t>22.341498161764697</t>
+  </si>
+  <si>
+    <t>17.315808823529405</t>
+  </si>
+  <si>
+    <t>24.783792892156853</t>
+  </si>
+  <si>
+    <t>23.378124999999986</t>
+  </si>
+  <si>
+    <t>17.48282781862744</t>
+  </si>
+  <si>
+    <t>17.974555759803913</t>
+  </si>
+  <si>
+    <t>15.280744485294111</t>
+  </si>
+  <si>
+    <t>9.735324754901956</t>
+  </si>
+  <si>
+    <t>25.23184742647058</t>
+  </si>
+  <si>
+    <t>13.453201593137248</t>
+  </si>
+  <si>
+    <t>16.09854473039215</t>
+  </si>
+  <si>
+    <t>23.776041666666657</t>
+  </si>
+  <si>
+    <t>19.128707107843127</t>
+  </si>
+  <si>
+    <t>17.285661764705875</t>
+  </si>
+  <si>
+    <t>17.851669730392146</t>
+  </si>
+  <si>
+    <t>16.697549019607834</t>
+  </si>
+  <si>
+    <t>29.42584252450979</t>
+  </si>
+  <si>
+    <t>16.41354166666666</t>
+  </si>
+  <si>
+    <t>21.388097426470573</t>
+  </si>
+  <si>
+    <t>18.89894301470587</t>
+  </si>
+  <si>
+    <t>17.887683823529407</t>
+  </si>
+  <si>
+    <t>16.88901654411764</t>
+  </si>
+  <si>
+    <t>18.483409926470582</t>
+  </si>
+  <si>
+    <t>13.582245710784306</t>
+  </si>
+  <si>
+    <t>22.51139705882352</t>
+  </si>
+  <si>
+    <t>16.329871323529403</t>
+  </si>
+  <si>
+    <t>21.39175857843136</t>
+  </si>
+  <si>
+    <t>21.413388480392143</t>
+  </si>
+  <si>
+    <t>18.16162683823528</t>
+  </si>
+  <si>
+    <t>18.859129901960774</t>
+  </si>
+  <si>
+    <t>23.999923406862735</t>
+  </si>
+  <si>
+    <t>15.614016544117638</t>
+  </si>
+  <si>
+    <t>24.72803308823528</t>
+  </si>
+  <si>
+    <t>16.645174632352933</t>
+  </si>
+  <si>
+    <t>27.83514093137254</t>
+  </si>
+  <si>
+    <t>20.05548406862744</t>
+  </si>
+  <si>
+    <t>19.73304227941175</t>
+  </si>
+  <si>
+    <t>0.05588305073680548</t>
+  </si>
+  <si>
+    <t>0.18204265242002476</t>
+  </si>
+  <si>
+    <t>0.07821645474797467</t>
+  </si>
+  <si>
+    <t>0.09375594810246428</t>
+  </si>
+  <si>
+    <t>0.04914292407648761</t>
+  </si>
+  <si>
+    <t>0.10301008010264937</t>
+  </si>
+  <si>
+    <t>0.10042238816911654</t>
+  </si>
+  <si>
+    <t>0.06719791359891338</t>
+  </si>
+  <si>
+    <t>0.077326238551698</t>
+  </si>
+  <si>
+    <t>0.05663519295128249</t>
+  </si>
+  <si>
+    <t>0.048751043939264826</t>
+  </si>
+  <si>
+    <t>0.06832246883595942</t>
+  </si>
+  <si>
+    <t>0.056472952541840725</t>
+  </si>
+  <si>
+    <t>0.08962159540785199</t>
+  </si>
+  <si>
+    <t>0.08021718242730011</t>
+  </si>
+  <si>
+    <t>0.06350483656328632</t>
+  </si>
+  <si>
+    <t>0.06960715301458917</t>
+  </si>
+  <si>
+    <t>0.1043220494348974</t>
+  </si>
+  <si>
+    <t>0.05606206837001547</t>
+  </si>
+  <si>
+    <t>0.06568464653729468</t>
+  </si>
+  <si>
+    <t>0.07227245317866302</t>
+  </si>
+  <si>
+    <t>0.057897301310615684</t>
+  </si>
+  <si>
+    <t>0.055778523659352944</t>
+  </si>
+  <si>
+    <t>0.10729585288996213</t>
+  </si>
+  <si>
+    <t>0.10916147211400988</t>
+  </si>
+  <si>
+    <t>0.07364779264451982</t>
+  </si>
+  <si>
+    <t>0.1319121801018705</t>
+  </si>
+  <si>
+    <t>0.06422113498961171</t>
+  </si>
+  <si>
+    <t>0.12298250311915096</t>
+  </si>
+  <si>
+    <t>0.06519430940031856</t>
+  </si>
+  <si>
+    <t>0.05234551337716947</t>
+  </si>
+  <si>
+    <t>0.0850744206924836</t>
+  </si>
+  <si>
+    <t>0.06230459901597526</t>
+  </si>
+  <si>
+    <t>0.12192380921792051</t>
+  </si>
+  <si>
+    <t>0.06446559384238358</t>
+  </si>
+  <si>
+    <t>0.05314017113906042</t>
+  </si>
+  <si>
+    <t>0.10569905209530077</t>
+  </si>
+  <si>
+    <t>0.08366424643095935</t>
+  </si>
+  <si>
+    <t>0.07781933067145437</t>
+  </si>
+  <si>
+    <t>0.06014824641491384</t>
+  </si>
+  <si>
+    <t>0.0781275510324598</t>
+  </si>
+  <si>
+    <t>0.10808680764661774</t>
+  </si>
+  <si>
+    <t>0.08343088039211072</t>
+  </si>
+  <si>
+    <t>0.06617466544441214</t>
+  </si>
+  <si>
+    <t>0.07263835852813522</t>
+  </si>
+  <si>
+    <t>0.054534626930729274</t>
+  </si>
+  <si>
+    <t>0.06446226797617888</t>
+  </si>
+  <si>
+    <t>0.10463094818622137</t>
+  </si>
+  <si>
+    <t>0.08259905020609552</t>
+  </si>
+  <si>
+    <t>0.07656259567823653</t>
+  </si>
+  <si>
+    <t>0.08901005806128846</t>
+  </si>
+  <si>
+    <t>0.05681237195959263</t>
+  </si>
+  <si>
+    <t>0.07561448143913171</t>
+  </si>
+  <si>
+    <t>0.051506721779151624</t>
+  </si>
+  <si>
+    <t>0.0730625827450371</t>
+  </si>
+  <si>
+    <t>0.08039608007352507</t>
+  </si>
+  <si>
+    <t>8.601381154483846e-05</t>
+  </si>
+  <si>
+    <t>0.00042643651555291235</t>
+  </si>
+  <si>
+    <t>0.00011558523915080732</t>
+  </si>
+  <si>
+    <t>0.0001348466297517781</t>
+  </si>
+  <si>
+    <t>7.782932796280272e-05</t>
+  </si>
+  <si>
+    <t>0.0002842088792471645</t>
+  </si>
+  <si>
+    <t>0.00025503355830690114</t>
+  </si>
+  <si>
+    <t>0.00011947684634515561</t>
+  </si>
+  <si>
+    <t>0.00014286309652537484</t>
+  </si>
+  <si>
+    <t>0.00011312740667651857</t>
+  </si>
+  <si>
+    <t>0.00011661915263960971</t>
+  </si>
+  <si>
+    <t>0.00010763353863297765</t>
+  </si>
+  <si>
+    <t>9.430952413134368e-05</t>
+  </si>
+  <si>
+    <t>0.00019972880773019993</t>
+  </si>
+  <si>
+    <t>0.00013760201154603994</t>
+  </si>
+  <si>
+    <t>9.783459186370621e-05</t>
+  </si>
+  <si>
+    <t>0.00012228291477436558</t>
+  </si>
+  <si>
+    <t>0.00014403170505334487</t>
+  </si>
+  <si>
+    <t>8.877998771506147e-05</t>
+  </si>
+  <si>
+    <t>0.00010286383242022293</t>
+  </si>
+  <si>
+    <t>0.00013873729830473846</t>
+  </si>
+  <si>
+    <t>0.00010014693492286613</t>
+  </si>
+  <si>
+    <t>8.295149401672428e-05</t>
+  </si>
+  <si>
+    <t>0.00015488005289431947</t>
+  </si>
+  <si>
+    <t>0.00017470462832804687</t>
+  </si>
+  <si>
+    <t>0.00015739655045535366</t>
+  </si>
+  <si>
+    <t>0.00024849920628484235</t>
+  </si>
+  <si>
+    <t>0.00010764292504685693</t>
+  </si>
+  <si>
+    <t>0.00022354871023164168</t>
+  </si>
+  <si>
+    <t>0.00013224002261750284</t>
+  </si>
+  <si>
+    <t>9.080651447159741e-05</t>
+  </si>
+  <si>
+    <t>0.00013253991854094576</t>
+  </si>
+  <si>
+    <t>0.00012772140297601878</t>
+  </si>
+  <si>
+    <t>0.0001652459390618992</t>
+  </si>
+  <si>
+    <t>0.00015611952884707797</t>
+  </si>
+  <si>
+    <t>9.439118593209333e-05</t>
+  </si>
+  <si>
+    <t>0.00021872550145977506</t>
+  </si>
+  <si>
+    <t>0.0001175230642961841</t>
+  </si>
+  <si>
+    <t>0.00013611473426686848</t>
+  </si>
+  <si>
+    <t>0.00014301609507160701</t>
+  </si>
+  <si>
+    <t>0.00015161451950571888</t>
+  </si>
+  <si>
+    <t>0.00021199591202902726</t>
+  </si>
+  <si>
+    <t>0.00018018817131632058</t>
+  </si>
+  <si>
+    <t>0.00010634806925221065</t>
+  </si>
+  <si>
+    <t>0.00012991547722029982</t>
+  </si>
+  <si>
+    <t>0.00010831827752547094</t>
+  </si>
+  <si>
+    <t>9.530917720948669e-05</t>
+  </si>
+  <si>
+    <t>0.00015231333801903114</t>
+  </si>
+  <si>
+    <t>0.0001100533561310553</t>
+  </si>
+  <si>
+    <t>0.00014368440773981163</t>
+  </si>
+  <si>
+    <t>0.00019058362468762013</t>
+  </si>
+  <si>
+    <t>8.655775422914258e-05</t>
+  </si>
+  <si>
+    <t>0.00016818529456819487</t>
+  </si>
+  <si>
+    <t>9.073001519848129e-05</t>
+  </si>
+  <si>
+    <t>0.00010411644935241247</t>
+  </si>
+  <si>
+    <t>0.00011572321943483272</t>
+  </si>
+  <si>
+    <t>0.009274363134190857</t>
+  </si>
+  <si>
+    <t>0.02065033935684623</t>
+  </si>
+  <si>
+    <t>0.010751057582898871</t>
+  </si>
+  <si>
+    <t>0.011612348158394929</t>
+  </si>
+  <si>
+    <t>0.008822093173550295</t>
+  </si>
+  <si>
+    <t>0.016858495758731395</t>
+  </si>
+  <si>
+    <t>0.01596977013945101</t>
+  </si>
+  <si>
+    <t>0.010930546479712514</t>
+  </si>
+  <si>
+    <t>0.011952535150560105</t>
+  </si>
+  <si>
+    <t>0.010636136830471793</t>
+  </si>
+  <si>
+    <t>0.010799034801296351</t>
+  </si>
+  <si>
+    <t>0.010374658482715354</t>
+  </si>
+  <si>
+    <t>0.009711309084327595</t>
+  </si>
+  <si>
+    <t>0.014132544276604972</t>
+  </si>
+  <si>
+    <t>0.011730388380017089</t>
+  </si>
+  <si>
+    <t>0.009891137035938094</t>
+  </si>
+  <si>
+    <t>0.01105816055112086</t>
+  </si>
+  <si>
+    <t>0.0120013209711825</t>
+  </si>
+  <si>
+    <t>0.009422313288946695</t>
+  </si>
+  <si>
+    <t>0.010142180851287505</t>
+  </si>
+  <si>
+    <t>0.011778679820113052</t>
+  </si>
+  <si>
+    <t>0.010007344049390235</t>
+  </si>
+  <si>
+    <t>0.009107771078410144</t>
+  </si>
+  <si>
+    <t>0.012445081473992826</t>
+  </si>
+  <si>
+    <t>0.013217587840753957</t>
+  </si>
+  <si>
+    <t>0.012545778192497812</t>
+  </si>
+  <si>
+    <t>0.01576385759529825</t>
+  </si>
+  <si>
+    <t>0.010375110845039533</t>
+  </si>
+  <si>
+    <t>0.014951545412820766</t>
+  </si>
+  <si>
+    <t>0.011499566192578867</t>
+  </si>
+  <si>
+    <t>0.00952924522045673</t>
+  </si>
+  <si>
+    <t>0.011512598253259156</t>
+  </si>
+  <si>
+    <t>0.011301389426792565</t>
+  </si>
+  <si>
+    <t>0.012854802179026296</t>
+  </si>
+  <si>
+    <t>0.012494780063973834</t>
+  </si>
+  <si>
+    <t>0.009715512643813158</t>
+  </si>
+  <si>
+    <t>0.014789371232739242</t>
+  </si>
+  <si>
+    <t>0.010840805518787988</t>
+  </si>
+  <si>
+    <t>0.011666821943737226</t>
+  </si>
+  <si>
+    <t>0.011958933692917902</t>
+  </si>
+  <si>
+    <t>0.012313184783219931</t>
+  </si>
+  <si>
+    <t>0.014560079396384734</t>
+  </si>
+  <si>
+    <t>0.01342341876409734</t>
+  </si>
+  <si>
+    <t>0.010312520024330167</t>
+  </si>
+  <si>
+    <t>0.011398047079228082</t>
+  </si>
+  <si>
+    <t>0.010407606714584815</t>
+  </si>
+  <si>
+    <t>0.009762641917508124</t>
+  </si>
+  <si>
+    <t>0.012341528998427673</t>
+  </si>
+  <si>
+    <t>0.010490631827066247</t>
+  </si>
+  <si>
+    <t>0.011986843109835535</t>
+  </si>
+  <si>
+    <t>0.013805202812259592</t>
+  </si>
+  <si>
+    <t>0.009303641987369386</t>
+  </si>
+  <si>
+    <t>0.012968627320121235</t>
+  </si>
+  <si>
+    <t>0.009525230453825318</t>
+  </si>
+  <si>
+    <t>0.010203746829102165</t>
+  </si>
+  <si>
+    <t>0.010757472725265574</t>
+  </si>
+  <si>
+    <t>112.96528625488281</t>
+  </si>
+  <si>
+    <t>115.97602844238281</t>
+  </si>
+  <si>
+    <t>115.5467529296875</t>
+  </si>
+  <si>
+    <t>109.00300598144531</t>
+  </si>
+  <si>
+    <t>104.30168151855469</t>
+  </si>
+  <si>
+    <t>117.21345520019531</t>
+  </si>
+  <si>
+    <t>102.32586669921875</t>
+  </si>
+  <si>
+    <t>107.49964904785156</t>
+  </si>
+  <si>
+    <t>107.09535217285156</t>
+  </si>
+  <si>
+    <t>111.79600524902344</t>
+  </si>
+  <si>
+    <t>120.77900695800781</t>
+  </si>
+  <si>
+    <t>118.42724609375</t>
+  </si>
+  <si>
+    <t>99.74504089355469</t>
+  </si>
+  <si>
+    <t>104.17343139648438</t>
+  </si>
+  <si>
+    <t>101.22776794433594</t>
+  </si>
+  <si>
+    <t>103.21424865722656</t>
+  </si>
+  <si>
+    <t>114.16766357421875</t>
+  </si>
+  <si>
+    <t>92.74586486816406</t>
+  </si>
+  <si>
+    <t>97.54507446289062</t>
+  </si>
+  <si>
+    <t>106.80142211914062</t>
+  </si>
+  <si>
+    <t>111.65737915039062</t>
+  </si>
+  <si>
+    <t>107.80824279785156</t>
+  </si>
+  <si>
+    <t>108.36964416503906</t>
+  </si>
+  <si>
+    <t>101.80557250976562</t>
+  </si>
+  <si>
+    <t>92.91459655761719</t>
+  </si>
+  <si>
+    <t>116.40644836425781</t>
+  </si>
+  <si>
+    <t>117.5341796875</t>
+  </si>
+  <si>
+    <t>112.19869995117188</t>
+  </si>
+  <si>
+    <t>115.15359497070312</t>
+  </si>
+  <si>
+    <t>121.89921569824219</t>
+  </si>
+  <si>
+    <t>122.29292297363281</t>
+  </si>
+  <si>
+    <t>105.10897827148438</t>
+  </si>
+  <si>
+    <t>115.54547119140625</t>
+  </si>
+  <si>
+    <t>106.40789794921875</t>
+  </si>
+  <si>
+    <t>122.156494140625</t>
+  </si>
+  <si>
+    <t>96.56608581542969</t>
+  </si>
+  <si>
+    <t>111.760986328125</t>
+  </si>
+  <si>
+    <t>100.76602172851562</t>
+  </si>
+  <si>
+    <t>93.4195556640625</t>
+  </si>
+  <si>
+    <t>120.45219421386719</t>
+  </si>
+  <si>
+    <t>124.12406921386719</t>
+  </si>
+  <si>
+    <t>99.52171325683594</t>
+  </si>
+  <si>
+    <t>121.07887268066406</t>
+  </si>
+  <si>
+    <t>98.46531677246094</t>
+  </si>
+  <si>
+    <t>108.17857360839844</t>
+  </si>
+  <si>
+    <t>107.22862243652344</t>
+  </si>
+  <si>
+    <t>98.56590270996094</t>
+  </si>
+  <si>
+    <t>94.4219970703125</t>
+  </si>
+  <si>
+    <t>98.724365234375</t>
+  </si>
+  <si>
+    <t>111.8380126953125</t>
+  </si>
+  <si>
+    <t>114.3310546875</t>
+  </si>
+  <si>
+    <t>103.58433532714844</t>
+  </si>
+  <si>
+    <t>108.36891174316406</t>
+  </si>
+  <si>
+    <t>111.52970886230469</t>
+  </si>
+  <si>
+    <t>109.19215393066406</t>
+  </si>
+  <si>
+    <t>84.06434631347656</t>
+  </si>
+  <si>
+    <t>49.5087890625</t>
+  </si>
+  <si>
+    <t>38.546112060546875</t>
+  </si>
+  <si>
+    <t>46.90435791015625</t>
+  </si>
+  <si>
+    <t>46.06278991699219</t>
+  </si>
+  <si>
+    <t>61.010711669921875</t>
+  </si>
+  <si>
+    <t>49.462005615234375</t>
+  </si>
+  <si>
+    <t>58.3289794921875</t>
+  </si>
+  <si>
+    <t>44.175811767578125</t>
+  </si>
+  <si>
+    <t>54.7298583984375</t>
+  </si>
+  <si>
+    <t>54.72746276855469</t>
+  </si>
+  <si>
+    <t>44.752471923828125</t>
+  </si>
+  <si>
+    <t>54.45280456542969</t>
+  </si>
+  <si>
+    <t>59.47938537597656</t>
+  </si>
+  <si>
+    <t>63.54319763183594</t>
+  </si>
+  <si>
+    <t>61.62400817871094</t>
+  </si>
+  <si>
+    <t>60.519256591796875</t>
+  </si>
+  <si>
+    <t>45.96891784667969</t>
+  </si>
+  <si>
+    <t>60.95619201660156</t>
+  </si>
+  <si>
+    <t>49.049285888671875</t>
+  </si>
+  <si>
+    <t>56.05586242675781</t>
+  </si>
+  <si>
+    <t>67.435546875</t>
+  </si>
+  <si>
+    <t>58.82611083984375</t>
+  </si>
+  <si>
+    <t>51.510467529296875</t>
+  </si>
+  <si>
+    <t>59.77555847167969</t>
+  </si>
+  <si>
+    <t>45.59028625488281</t>
+  </si>
+  <si>
+    <t>46.628265380859375</t>
+  </si>
+  <si>
+    <t>56.11961364746094</t>
+  </si>
+  <si>
+    <t>50.341552734375</t>
+  </si>
+  <si>
+    <t>59.42266845703125</t>
+  </si>
+  <si>
+    <t>46.330810546875</t>
+  </si>
+  <si>
+    <t>46.62286376953125</t>
+  </si>
+  <si>
+    <t>44.53778076171875</t>
+  </si>
+  <si>
+    <t>51.30140686035156</t>
+  </si>
+  <si>
+    <t>43.35331726074219</t>
+  </si>
+  <si>
+    <t>43.04780578613281</t>
+  </si>
+  <si>
+    <t>58.91816711425781</t>
+  </si>
+  <si>
+    <t>52.448211669921875</t>
+  </si>
+  <si>
+    <t>55.20857238769531</t>
+  </si>
+  <si>
+    <t>47.55162048339844</t>
+  </si>
+  <si>
+    <t>59.509368896484375</t>
+  </si>
+  <si>
+    <t>57.98722839355469</t>
+  </si>
+  <si>
+    <t>67.38717651367188</t>
+  </si>
+  <si>
+    <t>52.75270080566406</t>
+  </si>
+  <si>
+    <t>46.58204650878906</t>
+  </si>
+  <si>
+    <t>38.803009033203125</t>
+  </si>
+  <si>
+    <t>49.5091552734375</t>
+  </si>
+  <si>
+    <t>61.10789489746094</t>
+  </si>
+  <si>
+    <t>76.47550964355469</t>
+  </si>
+  <si>
+    <t>59.960693359375</t>
+  </si>
+  <si>
+    <t>51.91133117675781</t>
+  </si>
+  <si>
+    <t>43.829925537109375</t>
+  </si>
+  <si>
+    <t>53.32171630859375</t>
+  </si>
+  <si>
+    <t>47.78410339355469</t>
+  </si>
+  <si>
+    <t>44.057830810546875</t>
+  </si>
+  <si>
+    <t>61.281341552734375</t>
+  </si>
+  <si>
+    <t>70.4527587890625</t>
+  </si>
+  <si>
+    <t>119.20716857910156</t>
+  </si>
+  <si>
+    <t>135.14649963378906</t>
+  </si>
+  <si>
+    <t>129.6885986328125</t>
+  </si>
+  <si>
+    <t>125.9063720703125</t>
+  </si>
+  <si>
+    <t>129.2041473388672</t>
+  </si>
+  <si>
+    <t>124.48031616210938</t>
+  </si>
+  <si>
+    <t>116.43115234375</t>
+  </si>
+  <si>
+    <t>135.4577178955078</t>
+  </si>
+  <si>
+    <t>118.93745422363281</t>
+  </si>
+  <si>
+    <t>114.86817932128906</t>
+  </si>
+  <si>
+    <t>125.89923095703125</t>
+  </si>
+  <si>
+    <t>132.6795196533203</t>
+  </si>
+  <si>
+    <t>118.32803344726562</t>
+  </si>
+  <si>
+    <t>120.85293579101562</t>
+  </si>
+  <si>
+    <t>122.87718200683594</t>
+  </si>
+  <si>
+    <t>127.54454040527344</t>
+  </si>
+  <si>
+    <t>133.62261962890625</t>
+  </si>
+  <si>
+    <t>123.54972839355469</t>
+  </si>
+  <si>
+    <t>128.6362762451172</t>
+  </si>
+  <si>
+    <t>127.08267211914062</t>
+  </si>
+  <si>
+    <t>123.98133850097656</t>
+  </si>
+  <si>
+    <t>122.44444274902344</t>
+  </si>
+  <si>
+    <t>122.1502685546875</t>
+  </si>
+  <si>
+    <t>123.91427612304688</t>
+  </si>
+  <si>
+    <t>138.59463500976562</t>
+  </si>
+  <si>
+    <t>116.80242919921875</t>
+  </si>
+  <si>
+    <t>117.78172302246094</t>
+  </si>
+  <si>
+    <t>118.92628479003906</t>
+  </si>
+  <si>
+    <t>123.6087646484375</t>
+  </si>
+  <si>
+    <t>137.9779815673828</t>
+  </si>
+  <si>
+    <t>130.28880310058594</t>
+  </si>
+  <si>
+    <t>134.66494750976562</t>
+  </si>
+  <si>
+    <t>132.17164611816406</t>
+  </si>
+  <si>
+    <t>159.35638427734375</t>
+  </si>
+  <si>
+    <t>108.6324462890625</t>
+  </si>
+  <si>
+    <t>103.75898742675781</t>
+  </si>
+  <si>
+    <t>116.21420288085938</t>
+  </si>
+  <si>
+    <t>125.19606018066406</t>
+  </si>
+  <si>
+    <t>137.55076599121094</t>
+  </si>
+  <si>
+    <t>133.80946350097656</t>
+  </si>
+  <si>
+    <t>102.27735900878906</t>
+  </si>
+  <si>
+    <t>124.36759948730469</t>
+  </si>
+  <si>
+    <t>122.17732238769531</t>
+  </si>
+  <si>
+    <t>137.3187713623047</t>
+  </si>
+  <si>
+    <t>139.2315216064453</t>
+  </si>
+  <si>
+    <t>115.07162475585938</t>
+  </si>
+  <si>
+    <t>124.72279357910156</t>
+  </si>
+  <si>
+    <t>120.19741821289062</t>
+  </si>
+  <si>
+    <t>129.7342987060547</t>
+  </si>
+  <si>
+    <t>121.38710021972656</t>
+  </si>
+  <si>
+    <t>151.73043823242188</t>
+  </si>
+  <si>
+    <t>128.62319946289062</t>
+  </si>
+  <si>
+    <t>135.6765594482422</t>
+  </si>
+  <si>
+    <t>121.13528442382812</t>
+  </si>
+  <si>
+    <t>128.72544860839844</t>
+  </si>
+  <si>
+    <t>129.66323852539062</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/01b2013e-4030-4cd0-843c-2dbacf5f3758___Com.G_TgS_FL 8398.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/01e0b8b1-e713-4c6d-973b-f7636280c58a___Com.G_TgS_FL 9816.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/01f0e0cb-83a7-4190-9645-bd06b70c8d65___Com.G_TgS_FL 8318.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0a2de4c5-d688-4f9d-9107-ace1d281c307___Com.G_TgS_FL 7941.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0a3b6099-c254-4bc3-8360-53a9f558a0c4___Com.G_TgS_FL 8259.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0a458dfc-b513-44f2-a3ce-dab4c3adb939___Com.G_TgS_FL 8166.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0a51617c-ecb5-42ce-9d34-300307be3465___Com.G_TgS_FL 0976.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0a578317-a98b-4e26-b17b-cd2930330375___Com.G_TgS_FL 0785.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0a610d40-f5b8-4580-8e32-cc90b3620017___Com.G_TgS_FL 8191.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0abb0bf0-8a1e-4699-80ee-c434385d9514___Com.G_TgS_FL 8115.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0b0e5158-180e-487c-b4a7-1ee496473147___Com.G_TgS_FL 9932.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0b126ce6-af82-477f-8f4e-1de79d84a6dd___Com.G_TgS_FL 8294.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0b6c4305-0cdc-4150-914b-5d7a5acb7881___Com.G_TgS_FL 8257.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0c2bd887-092f-410d-ac56-9b96110665c8___Com.G_TgS_FL 8285.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0c4c7140-1059-4e3a-a6e2-15c4bdd46743___Com.G_TgS_FL 8142.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0c80eea7-7c6f-4f3c-be3d-6cca9ec30c1b___Com.G_TgS_FL 0991.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0c91af09-0ad7-46a1-844b-edfd6af34df2___Com.G_TgS_FL 9776.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0d15f8d7-a777-4c3b-b5e4-5b1d31661e89___Com.G_TgS_FL 1094.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0d97bbcf-f322-410a-984d-935e8d2bb5d0___Com.G_TgS_FL 0748.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0da91f19-f1bb-4129-b122-459648794512___Com.G_TgS_FL 8276.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0df45326-8aa9-49bf-a2fd-e7f454c2dfbf___Com.G_TgS_FL 9718.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0e763e60-8821-4484-9793-f8ee4f515127___Com.G_TgS_FL 8135.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0e8a96d7-528a-4d09-8263-2a2d92f3c3b1___Com.G_TgS_FL 8337.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0e9c0af8-facc-4240-b498-41f8004c8061___Com.G_TgS_FL 0915.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0f32cb0d-8a87-4d7b-beb1-945c4e1cd374___Com.G_TgS_FL 0642.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0f5f2efc-3544-4fbc-8dcc-e623577596bc___Com.G_TgS_FL 9869.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0f9aa748-57f0-4b14-98c0-b9c1966badc9___Com.G_TgS_FL 9854.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0fccb8d0-3f91-442c-8d74-6dbfb163f8a9___Com.G_TgS_FL 8365.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0fe0ad25-e48a-4b91-bd06-bdd5799944e5___Com.G_TgS_FL 8351.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0fe6221c-5848-4000-afc6-5a10422dd300___Com.G_TgS_FL 9772.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/0fe7d644-dc8b-49f7-9a41-33ec029f6437___Com.G_TgS_FL 8274.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1a3fba97-a09e-48f3-b74e-fe060a03f39b___Com.G_TgS_FL 0856.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1a519d98-24e1-48bc-af8b-1e9c6ede95e8___Com.G_TgS_FL 9678.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1a8e252e-a75b-4d39-9dfb-e09434029183___Com.G_TgS_FL 0711.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1a94e7be-a54f-42e2-ac9c-7242ea9d0fb0___Com.G_TgS_FL 9852.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1b0bb2af-424b-4268-9f2b-80e4324b769d___Com.G_TgS_FL 8358.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1b46f9fb-4e90-4cbf-bad5-78414e389be2___Com.G_TgS_FL 8001.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1bc7877c-d674-4242-bc37-a77b5e7d7dc6___Com.G_TgS_FL 8263.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1bd1e7a3-614e-4ae4-8707-effd2b0e42fb___Com.G_TgS_FL 0688.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1c051bf2-9fb9-4d1f-b5c3-d813c0278aca___Com.G_TgS_FL 9683.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1c980f09-7e37-4e57-96e5-d18783691134___Com.G_TgS_FL 9908.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1c986ad6-8c08-4b6e-ac23-184d3d8d84fa___Com.G_TgS_FL 8083.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1cc31c92-0fbd-488a-b0a2-ef25f985bf13___Com.G_TgS_FL 9840.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1cf38c9a-f005-455f-9101-a04239ccb9a4___Com.G_TgS_FL 0749.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1d4b2b39-04ca-4921-b824-52c7062f4efb___Com.G_TgS_FL 9810.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1d51081c-bd57-42aa-9a2b-c394912e87c7___Com.G_TgS_FL 9740.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1d67d1c7-108d-4090-88c5-519d52963e9a___Com.G_TgS_FL 0980.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1d7a5100-9953-46fc-b665-8bb9e48bfae5___Com.G_TgS_FL 0921.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1d8579f3-ef8b-4a8e-be98-7e39fe8bbf9a___Com.G_TgS_FL 7944.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1e5f36a1-69fd-4256-be5d-ae451546b94c___Com.G_TgS_FL 8094.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1ea4741f-c01c-486e-a4b4-c77bce536f95___Com.G_TgS_FL 9821.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1ec7a39a-7eec-434e-94ae-c6d32923b1e2___Com.G_TgS_FL 1107.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1ecca1a2-c028-4cf8-8861-6fcb365bffca___Com.G_TgS_FL 9707.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1f2808be-4fd7-4711-b2dd-5dcc765ef22f___Com.G_TgS_FL 8307.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1f315135-8b90-4b79-ac61-c71a06ab141e___Com.G_TgS_FL 8080.JPG</t>
+  </si>
+  <si>
+    <t>../../data/tomato/test/1/1f778f17-eacb-4d7a-bf34-041955ebff8f___Com.G_TgS_FL 0694.JPG</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -431,7 +1916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,31 +1962,1956 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H3" t="s">
+        <v>347</v>
+      </c>
+      <c r="I3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J3" t="s">
+        <v>459</v>
+      </c>
+      <c r="K3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I4" t="s">
+        <v>404</v>
+      </c>
+      <c r="J4" t="s">
+        <v>460</v>
+      </c>
+      <c r="K4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" t="s">
+        <v>349</v>
+      </c>
+      <c r="I5" t="s">
+        <v>405</v>
+      </c>
+      <c r="J5" t="s">
+        <v>461</v>
+      </c>
+      <c r="K5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I6" t="s">
+        <v>406</v>
+      </c>
+      <c r="J6" t="s">
+        <v>462</v>
+      </c>
+      <c r="K6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H7" t="s">
+        <v>351</v>
+      </c>
+      <c r="I7" t="s">
+        <v>407</v>
+      </c>
+      <c r="J7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" t="s">
+        <v>296</v>
+      </c>
+      <c r="H8" t="s">
+        <v>352</v>
+      </c>
+      <c r="I8" t="s">
+        <v>408</v>
+      </c>
+      <c r="J8" t="s">
+        <v>464</v>
+      </c>
+      <c r="K8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G9" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9" t="s">
+        <v>353</v>
+      </c>
+      <c r="I9" t="s">
+        <v>409</v>
+      </c>
+      <c r="J9" t="s">
+        <v>465</v>
+      </c>
+      <c r="K9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" t="s">
+        <v>354</v>
+      </c>
+      <c r="I10" t="s">
+        <v>410</v>
+      </c>
+      <c r="J10" t="s">
+        <v>466</v>
+      </c>
+      <c r="K10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" t="s">
+        <v>299</v>
+      </c>
+      <c r="H11" t="s">
+        <v>355</v>
+      </c>
+      <c r="I11" t="s">
+        <v>411</v>
+      </c>
+      <c r="J11" t="s">
+        <v>467</v>
+      </c>
+      <c r="K11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G12" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I12" t="s">
+        <v>412</v>
+      </c>
+      <c r="J12" t="s">
+        <v>468</v>
+      </c>
+      <c r="K12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" t="s">
+        <v>301</v>
+      </c>
+      <c r="H13" t="s">
+        <v>357</v>
+      </c>
+      <c r="I13" t="s">
+        <v>413</v>
+      </c>
+      <c r="J13" t="s">
+        <v>469</v>
+      </c>
+      <c r="K13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" t="s">
+        <v>302</v>
+      </c>
+      <c r="H14" t="s">
+        <v>358</v>
+      </c>
+      <c r="I14" t="s">
+        <v>414</v>
+      </c>
+      <c r="J14" t="s">
+        <v>470</v>
+      </c>
+      <c r="K14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" t="s">
+        <v>303</v>
+      </c>
+      <c r="H15" t="s">
+        <v>359</v>
+      </c>
+      <c r="I15" t="s">
+        <v>415</v>
+      </c>
+      <c r="J15" t="s">
+        <v>471</v>
+      </c>
+      <c r="K15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="H16" t="s">
+        <v>360</v>
+      </c>
+      <c r="I16" t="s">
+        <v>416</v>
+      </c>
+      <c r="J16" t="s">
+        <v>472</v>
+      </c>
+      <c r="K16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" t="s">
+        <v>361</v>
+      </c>
+      <c r="I17" t="s">
+        <v>417</v>
+      </c>
+      <c r="J17" t="s">
+        <v>473</v>
+      </c>
+      <c r="K17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" t="s">
+        <v>250</v>
+      </c>
+      <c r="G18" t="s">
+        <v>306</v>
+      </c>
+      <c r="H18" t="s">
+        <v>362</v>
+      </c>
+      <c r="I18" t="s">
+        <v>418</v>
+      </c>
+      <c r="J18" t="s">
+        <v>474</v>
+      </c>
+      <c r="K18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19" t="s">
+        <v>307</v>
+      </c>
+      <c r="H19" t="s">
+        <v>363</v>
+      </c>
+      <c r="I19" t="s">
+        <v>419</v>
+      </c>
+      <c r="J19" t="s">
+        <v>475</v>
+      </c>
+      <c r="K19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" t="s">
+        <v>364</v>
+      </c>
+      <c r="I20" t="s">
+        <v>420</v>
+      </c>
+      <c r="J20" t="s">
+        <v>476</v>
+      </c>
+      <c r="K20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" t="s">
+        <v>253</v>
+      </c>
+      <c r="G21" t="s">
+        <v>309</v>
+      </c>
+      <c r="H21" t="s">
+        <v>365</v>
+      </c>
+      <c r="I21" t="s">
+        <v>421</v>
+      </c>
+      <c r="J21" t="s">
+        <v>477</v>
+      </c>
+      <c r="K21" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I22" t="s">
+        <v>422</v>
+      </c>
+      <c r="J22" t="s">
+        <v>478</v>
+      </c>
+      <c r="K22" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" t="s">
+        <v>311</v>
+      </c>
+      <c r="H23" t="s">
+        <v>367</v>
+      </c>
+      <c r="I23" t="s">
+        <v>423</v>
+      </c>
+      <c r="J23" t="s">
+        <v>479</v>
+      </c>
+      <c r="K23" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" t="s">
+        <v>256</v>
+      </c>
+      <c r="G24" t="s">
+        <v>312</v>
+      </c>
+      <c r="H24" t="s">
+        <v>368</v>
+      </c>
+      <c r="I24" t="s">
+        <v>424</v>
+      </c>
+      <c r="J24" t="s">
+        <v>480</v>
+      </c>
+      <c r="K24" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" t="s">
+        <v>257</v>
+      </c>
+      <c r="G25" t="s">
+        <v>313</v>
+      </c>
+      <c r="H25" t="s">
+        <v>369</v>
+      </c>
+      <c r="I25" t="s">
+        <v>425</v>
+      </c>
+      <c r="J25" t="s">
+        <v>481</v>
+      </c>
+      <c r="K25" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" t="s">
+        <v>314</v>
+      </c>
+      <c r="H26" t="s">
+        <v>370</v>
+      </c>
+      <c r="I26" t="s">
+        <v>426</v>
+      </c>
+      <c r="J26" t="s">
+        <v>482</v>
+      </c>
+      <c r="K26" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" t="s">
+        <v>259</v>
+      </c>
+      <c r="G27" t="s">
+        <v>315</v>
+      </c>
+      <c r="H27" t="s">
+        <v>371</v>
+      </c>
+      <c r="I27" t="s">
+        <v>427</v>
+      </c>
+      <c r="J27" t="s">
+        <v>483</v>
+      </c>
+      <c r="K27" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" t="s">
+        <v>316</v>
+      </c>
+      <c r="H28" t="s">
+        <v>372</v>
+      </c>
+      <c r="I28" t="s">
+        <v>428</v>
+      </c>
+      <c r="J28" t="s">
+        <v>484</v>
+      </c>
+      <c r="K28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G29" t="s">
+        <v>317</v>
+      </c>
+      <c r="H29" t="s">
+        <v>373</v>
+      </c>
+      <c r="I29" t="s">
+        <v>429</v>
+      </c>
+      <c r="J29" t="s">
+        <v>485</v>
+      </c>
+      <c r="K29" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" t="s">
+        <v>318</v>
+      </c>
+      <c r="H30" t="s">
+        <v>374</v>
+      </c>
+      <c r="I30" t="s">
+        <v>430</v>
+      </c>
+      <c r="J30" t="s">
+        <v>486</v>
+      </c>
+      <c r="K30" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" t="s">
+        <v>319</v>
+      </c>
+      <c r="H31" t="s">
+        <v>375</v>
+      </c>
+      <c r="I31" t="s">
+        <v>431</v>
+      </c>
+      <c r="J31" t="s">
+        <v>487</v>
+      </c>
+      <c r="K31" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" t="s">
+        <v>320</v>
+      </c>
+      <c r="H32" t="s">
+        <v>376</v>
+      </c>
+      <c r="I32" t="s">
+        <v>432</v>
+      </c>
+      <c r="J32" t="s">
+        <v>488</v>
+      </c>
+      <c r="K32" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" t="s">
+        <v>321</v>
+      </c>
+      <c r="H33" t="s">
+        <v>377</v>
+      </c>
+      <c r="I33" t="s">
+        <v>433</v>
+      </c>
+      <c r="J33" t="s">
+        <v>489</v>
+      </c>
+      <c r="K33" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" t="s">
+        <v>322</v>
+      </c>
+      <c r="H34" t="s">
+        <v>378</v>
+      </c>
+      <c r="I34" t="s">
+        <v>434</v>
+      </c>
+      <c r="J34" t="s">
+        <v>490</v>
+      </c>
+      <c r="K34" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" t="s">
+        <v>323</v>
+      </c>
+      <c r="H35" t="s">
+        <v>379</v>
+      </c>
+      <c r="I35" t="s">
+        <v>435</v>
+      </c>
+      <c r="J35" t="s">
+        <v>491</v>
+      </c>
+      <c r="K35" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" t="s">
+        <v>324</v>
+      </c>
+      <c r="H36" t="s">
+        <v>380</v>
+      </c>
+      <c r="I36" t="s">
+        <v>436</v>
+      </c>
+      <c r="J36" t="s">
+        <v>492</v>
+      </c>
+      <c r="K36" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" t="s">
+        <v>325</v>
+      </c>
+      <c r="H37" t="s">
+        <v>381</v>
+      </c>
+      <c r="I37" t="s">
+        <v>437</v>
+      </c>
+      <c r="J37" t="s">
+        <v>493</v>
+      </c>
+      <c r="K37" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" t="s">
+        <v>326</v>
+      </c>
+      <c r="H38" t="s">
+        <v>382</v>
+      </c>
+      <c r="I38" t="s">
+        <v>438</v>
+      </c>
+      <c r="J38" t="s">
+        <v>494</v>
+      </c>
+      <c r="K38" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" t="s">
+        <v>327</v>
+      </c>
+      <c r="H39" t="s">
+        <v>383</v>
+      </c>
+      <c r="I39" t="s">
+        <v>439</v>
+      </c>
+      <c r="J39" t="s">
+        <v>495</v>
+      </c>
+      <c r="K39" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" t="s">
+        <v>272</v>
+      </c>
+      <c r="G40" t="s">
+        <v>328</v>
+      </c>
+      <c r="H40" t="s">
+        <v>384</v>
+      </c>
+      <c r="I40" t="s">
+        <v>440</v>
+      </c>
+      <c r="J40" t="s">
+        <v>496</v>
+      </c>
+      <c r="K40" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" t="s">
+        <v>273</v>
+      </c>
+      <c r="G41" t="s">
+        <v>329</v>
+      </c>
+      <c r="H41" t="s">
+        <v>385</v>
+      </c>
+      <c r="I41" t="s">
+        <v>441</v>
+      </c>
+      <c r="J41" t="s">
+        <v>497</v>
+      </c>
+      <c r="K41" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" t="s">
+        <v>274</v>
+      </c>
+      <c r="G42" t="s">
+        <v>330</v>
+      </c>
+      <c r="H42" t="s">
+        <v>386</v>
+      </c>
+      <c r="I42" t="s">
+        <v>442</v>
+      </c>
+      <c r="J42" t="s">
+        <v>498</v>
+      </c>
+      <c r="K42" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" t="s">
+        <v>275</v>
+      </c>
+      <c r="G43" t="s">
+        <v>331</v>
+      </c>
+      <c r="H43" t="s">
+        <v>387</v>
+      </c>
+      <c r="I43" t="s">
+        <v>443</v>
+      </c>
+      <c r="J43" t="s">
+        <v>499</v>
+      </c>
+      <c r="K43" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" t="s">
+        <v>276</v>
+      </c>
+      <c r="G44" t="s">
+        <v>332</v>
+      </c>
+      <c r="H44" t="s">
+        <v>388</v>
+      </c>
+      <c r="I44" t="s">
+        <v>444</v>
+      </c>
+      <c r="J44" t="s">
+        <v>500</v>
+      </c>
+      <c r="K44" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" t="s">
+        <v>277</v>
+      </c>
+      <c r="G45" t="s">
+        <v>333</v>
+      </c>
+      <c r="H45" t="s">
+        <v>389</v>
+      </c>
+      <c r="I45" t="s">
+        <v>445</v>
+      </c>
+      <c r="J45" t="s">
+        <v>501</v>
+      </c>
+      <c r="K45" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>222</v>
+      </c>
+      <c r="F46" t="s">
+        <v>278</v>
+      </c>
+      <c r="G46" t="s">
+        <v>334</v>
+      </c>
+      <c r="H46" t="s">
+        <v>390</v>
+      </c>
+      <c r="I46" t="s">
+        <v>446</v>
+      </c>
+      <c r="J46" t="s">
+        <v>502</v>
+      </c>
+      <c r="K46" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" t="s">
+        <v>223</v>
+      </c>
+      <c r="F47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G47" t="s">
+        <v>335</v>
+      </c>
+      <c r="H47" t="s">
+        <v>391</v>
+      </c>
+      <c r="I47" t="s">
+        <v>447</v>
+      </c>
+      <c r="J47" t="s">
+        <v>503</v>
+      </c>
+      <c r="K47" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" t="s">
+        <v>224</v>
+      </c>
+      <c r="F48" t="s">
+        <v>280</v>
+      </c>
+      <c r="G48" t="s">
+        <v>336</v>
+      </c>
+      <c r="H48" t="s">
+        <v>392</v>
+      </c>
+      <c r="I48" t="s">
+        <v>448</v>
+      </c>
+      <c r="J48" t="s">
+        <v>504</v>
+      </c>
+      <c r="K48" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" t="s">
+        <v>225</v>
+      </c>
+      <c r="F49" t="s">
+        <v>281</v>
+      </c>
+      <c r="G49" t="s">
+        <v>337</v>
+      </c>
+      <c r="H49" t="s">
+        <v>393</v>
+      </c>
+      <c r="I49" t="s">
+        <v>449</v>
+      </c>
+      <c r="J49" t="s">
+        <v>505</v>
+      </c>
+      <c r="K49" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" t="s">
+        <v>226</v>
+      </c>
+      <c r="F50" t="s">
+        <v>282</v>
+      </c>
+      <c r="G50" t="s">
+        <v>338</v>
+      </c>
+      <c r="H50" t="s">
+        <v>394</v>
+      </c>
+      <c r="I50" t="s">
+        <v>450</v>
+      </c>
+      <c r="J50" t="s">
+        <v>506</v>
+      </c>
+      <c r="K50" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" t="s">
+        <v>283</v>
+      </c>
+      <c r="G51" t="s">
+        <v>339</v>
+      </c>
+      <c r="H51" t="s">
+        <v>395</v>
+      </c>
+      <c r="I51" t="s">
+        <v>451</v>
+      </c>
+      <c r="J51" t="s">
+        <v>507</v>
+      </c>
+      <c r="K51" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" t="s">
+        <v>284</v>
+      </c>
+      <c r="G52" t="s">
+        <v>340</v>
+      </c>
+      <c r="H52" t="s">
+        <v>396</v>
+      </c>
+      <c r="I52" t="s">
+        <v>452</v>
+      </c>
+      <c r="J52" t="s">
+        <v>508</v>
+      </c>
+      <c r="K52" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" t="s">
+        <v>285</v>
+      </c>
+      <c r="G53" t="s">
+        <v>341</v>
+      </c>
+      <c r="H53" t="s">
+        <v>397</v>
+      </c>
+      <c r="I53" t="s">
+        <v>453</v>
+      </c>
+      <c r="J53" t="s">
+        <v>509</v>
+      </c>
+      <c r="K53" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" t="s">
+        <v>230</v>
+      </c>
+      <c r="F54" t="s">
+        <v>286</v>
+      </c>
+      <c r="G54" t="s">
+        <v>342</v>
+      </c>
+      <c r="H54" t="s">
+        <v>398</v>
+      </c>
+      <c r="I54" t="s">
+        <v>454</v>
+      </c>
+      <c r="J54" t="s">
+        <v>510</v>
+      </c>
+      <c r="K54" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" t="s">
+        <v>231</v>
+      </c>
+      <c r="F55" t="s">
+        <v>287</v>
+      </c>
+      <c r="G55" t="s">
+        <v>343</v>
+      </c>
+      <c r="H55" t="s">
+        <v>399</v>
+      </c>
+      <c r="I55" t="s">
+        <v>455</v>
+      </c>
+      <c r="J55" t="s">
+        <v>511</v>
+      </c>
+      <c r="K55" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" t="s">
+        <v>288</v>
+      </c>
+      <c r="G56" t="s">
+        <v>344</v>
+      </c>
+      <c r="H56" t="s">
+        <v>400</v>
+      </c>
+      <c r="I56" t="s">
+        <v>456</v>
+      </c>
+      <c r="J56" t="s">
+        <v>512</v>
+      </c>
+      <c r="K56" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" t="s">
+        <v>233</v>
+      </c>
+      <c r="F57" t="s">
+        <v>289</v>
+      </c>
+      <c r="G57" t="s">
+        <v>345</v>
+      </c>
+      <c r="H57" t="s">
+        <v>401</v>
+      </c>
+      <c r="I57" t="s">
+        <v>457</v>
+      </c>
+      <c r="J57" t="s">
+        <v>513</v>
+      </c>
+      <c r="K57" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
